--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19980" windowHeight="8070"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="19980" windowHeight="8070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sbp" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>No</t>
   </si>
@@ -382,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,4 +456,83 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>